--- a/data/mibig_training_set_manually_edited_20190304.xlsx
+++ b/data/mibig_training_set_manually_edited_20190304.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCCE73D-B427-8B4F-91AD-627092E4110F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A57EBB0-422A-7A41-A11A-091A041E0333}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="520" windowWidth="15760" windowHeight="14180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7660" yWindow="540" windowWidth="19160" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mibig_merged_with_pmids" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="2520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="2511">
   <si>
     <t>acc</t>
   </si>
@@ -7093,9 +7093,6 @@
     <t>2,3-dihydroxybenzoate</t>
   </si>
   <si>
-    <t>3-hydroxypicolinic_acid</t>
-  </si>
-  <si>
     <t>3,4-dihydroxybenzoic_acid</t>
   </si>
   <si>
@@ -7168,21 +7165,12 @@
     <t>phenylacetate</t>
   </si>
   <si>
-    <t>8_hydroxy_octanoic_acid</t>
-  </si>
-  <si>
-    <t>salycylate</t>
-  </si>
-  <si>
     <t>equibactin_siderophore_biosynthetic_protein_check_eqbD</t>
   </si>
   <si>
     <t>antG</t>
   </si>
   <si>
-    <t>acetate_malonate</t>
-  </si>
-  <si>
     <t>hexenoate</t>
   </si>
   <si>
@@ -7192,27 +7180,15 @@
     <t>acyl-CoA_synthetase_find_other_Miyamoto_ref</t>
   </si>
   <si>
-    <t>4_hydroxybenzoate</t>
-  </si>
-  <si>
-    <t>6_methylsalicylate</t>
-  </si>
-  <si>
     <t>CoA_ligase_check_name_AcmB2</t>
   </si>
   <si>
     <t>acyl-CoA_synthase_check_name_LipA</t>
   </si>
   <si>
-    <t>branched_C13_C15_fatty_acids</t>
-  </si>
-  <si>
     <t>Arm22_check_supplementary_table_3</t>
   </si>
   <si>
-    <t>α-hydroxy acids 2- hydroxyisovaleric acid (didemnin B) and 2-hydroxy-3-methylvaleric acid</t>
-  </si>
-  <si>
     <t>DidF_check_dom_9</t>
   </si>
   <si>
@@ -7237,12 +7213,6 @@
     <t>ref_dwnloaded</t>
   </si>
   <si>
-    <t>D_or_L_aspartate</t>
-  </si>
-  <si>
-    <t>1_4_dihydroxy_6_napthoic_acid_DH6N</t>
-  </si>
-  <si>
     <t>AMP-dependent_synthetase_and_ligase_GonSL</t>
   </si>
   <si>
@@ -7255,90 +7225,24 @@
     <t>AMP_dependent_CoA_ligase_azaF</t>
   </si>
   <si>
-    <t>2_4_dimethyl_hexanoate</t>
-  </si>
-  <si>
     <t>MACS</t>
   </si>
   <si>
-    <t>1_heptadecene</t>
-  </si>
-  <si>
-    <t>5-aminolevulinic_acid</t>
-  </si>
-  <si>
     <t>PCP</t>
   </si>
   <si>
     <t>CoA</t>
   </si>
   <si>
-    <t>5-methyl-naphthoic acid</t>
-  </si>
-  <si>
     <t>malonate</t>
   </si>
   <si>
-    <t>malonate_methylmalonate</t>
-  </si>
-  <si>
     <t>MMCS</t>
   </si>
   <si>
-    <t>2,7- dihydroxy-5-methyl-1-naphthoic acid</t>
-  </si>
-  <si>
     <t>to_remove</t>
   </si>
   <si>
-    <r>
-      <t>5-hydroxy-4-methoxy-3,6,7,8-tetrahydropyrrolo[3,2-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>]indole-2-carboxylic acid</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>5-hydroxy-6-methoxy-1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-indole-2-carboxylic acid</t>
-    </r>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
@@ -7348,18 +7252,12 @@
     <t>SimL_amide_bond_formation</t>
   </si>
   <si>
-    <t>2-ketoisovaleric acid_or_3,3- dimethyl-2-ketobutyrate</t>
-  </si>
-  <si>
     <t>putative_AMP-binding_domain-containing_protein_Orf16</t>
   </si>
   <si>
     <t>vibriobactin-specific_2,3-dihydroxybenzoate-AMP_ligase_EntE</t>
   </si>
   <si>
-    <t>acetate_propionate</t>
-  </si>
-  <si>
     <t xml:space="preserve">3-hydroxybenzoate </t>
   </si>
   <si>
@@ -7375,9 +7273,6 @@
     <t>decanote</t>
   </si>
   <si>
-    <t>decanoate_C10_C13</t>
-  </si>
-  <si>
     <t>1-carboxy-2-cyanopropane</t>
   </si>
   <si>
@@ -7396,12 +7291,6 @@
     <t>CHECK_MIBIG</t>
   </si>
   <si>
-    <t>myristate_pentadecanoate_palmitate</t>
-  </si>
-  <si>
-    <t>salycylates</t>
-  </si>
-  <si>
     <t>putative_acyl-coA_ligase_AurE</t>
   </si>
   <si>
@@ -7429,9 +7318,6 @@
     <t>(S)-3-aminobutyrate</t>
   </si>
   <si>
-    <t>dihydroxy_fatty_acid_C14_C18</t>
-  </si>
-  <si>
     <t>check_supplement</t>
   </si>
   <si>
@@ -7453,142 +7339,12 @@
     <t>3-hydroxy-4-methyldecanoate</t>
   </si>
   <si>
-    <r>
-      <t>(2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)-3-(1</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-indol-3-yl)-2-methylbutanoic acid</t>
-    </r>
-  </si>
-  <si>
     <t>aryl_polyene</t>
   </si>
   <si>
-    <r>
-      <t>(2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)-2-(5-((2</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)-3-hydroxyhexan-2-yl)tetrahydrofuran-2-yl)propanoic acid</t>
-    </r>
-  </si>
-  <si>
-    <t>salycilate</t>
-  </si>
-  <si>
     <t>check_MIbiG_names</t>
   </si>
   <si>
-    <t>octanoate_hexanoate</t>
-  </si>
-  <si>
     <t>check_Fur5_Streptomyces_sp</t>
   </si>
   <si>
@@ -7598,25 +7354,10 @@
     <t>check_LipA</t>
   </si>
   <si>
-    <t>2-oxo-3-phenylpropanoic acid</t>
-  </si>
-  <si>
-    <t>myristic_acid</t>
-  </si>
-  <si>
     <t xml:space="preserve">4-acetamidopyrrole-2-carboxylate </t>
   </si>
   <si>
-    <t>(2R)-2-[(2R,5S)-5-[(2S)-2-hydroxypropyl]oxolan-2-yl]propanoic acid_or_6,8-dihydroxy-2-methylnon-2E-enoic acid</t>
-  </si>
-  <si>
     <t>intramolecular_esterification</t>
-  </si>
-  <si>
-    <t>p-OH-phenyllactic acid.</t>
-  </si>
-  <si>
-    <t>3,4-dihydroxybenzoic acid</t>
   </si>
   <si>
     <r>
@@ -7703,12 +7444,6 @@
     <t>o-succinylbenzoate</t>
   </si>
   <si>
-    <t>acetyl_butyrl_malonyl</t>
-  </si>
-  <si>
-    <t>desmethyl-aminocoumarin</t>
-  </si>
-  <si>
     <t>acrylate</t>
   </si>
   <si>
@@ -7721,26 +7456,13 @@
     <t>ArCP</t>
   </si>
   <si>
-    <t>polyene</t>
-  </si>
-  <si>
     <t>2,3-dihydroxybenzoate CoA ligase</t>
   </si>
   <si>
-    <t xml:space="preserve">
-bismethylated guanidino-fatty acid</t>
-  </si>
-  <si>
     <t>trichloroleucine</t>
   </si>
   <si>
     <t>hydroxymethylglutarate</t>
-  </si>
-  <si>
-    <t>9-methyldecanoic acid</t>
-  </si>
-  <si>
-    <t>decanoate_methylnonanoate_methyldecanoate_hexanoate_caprylate</t>
   </si>
   <si>
     <t>myristate</t>
@@ -7788,9 +7510,6 @@
     <t>aminocoumarate</t>
   </si>
   <si>
-    <t>4-hydroxyphenylpyruvic_acid</t>
-  </si>
-  <si>
     <t>condensation</t>
   </si>
   <si>
@@ -7803,31 +7522,37 @@
     <t>cinnamate</t>
   </si>
   <si>
-    <t>5-hydroxy-4-methoxy-3,6,7,8-tetrahydropyrrolo[3,2-e]indole-2-carboxylic acid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,4-diamino-3-oxobutanoic acid </t>
-  </si>
-  <si>
-    <t>13-methyltetradecanoic acid</t>
-  </si>
-  <si>
-    <t>acetate_isobutyrate_propionate</t>
-  </si>
-  <si>
     <t>4-guanidinylbutanoate</t>
   </si>
   <si>
     <t>2-oxo-3-phenylpropanoate</t>
   </si>
   <si>
-    <t>acet</t>
-  </si>
-  <si>
     <t>5-aminolevulinate</t>
   </si>
   <si>
     <t>polyeneoate</t>
+  </si>
+  <si>
+    <t>functional_class</t>
+  </si>
+  <si>
+    <t>HOLDOUTTEST</t>
+  </si>
+  <si>
+    <t>aa_seq</t>
+  </si>
+  <si>
+    <t>8-hydroxyoctanoate</t>
+  </si>
+  <si>
+    <t>acetate; malonate</t>
+  </si>
+  <si>
+    <t>4-hydroxybenzoate</t>
+  </si>
+  <si>
+    <t>12-methyltridecanoate</t>
   </si>
   <si>
     <r>
@@ -7850,24 +7575,271 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>)-11-hydroxy-2,4,6,8,10,12-hexamethyl-9-oxotetradec-6-enoic acid</t>
+      <t>)-11-hydroxy-2,4,6,8,10,12-hexamethyl-9-oxotetradec-6-enoate</t>
     </r>
   </si>
   <si>
-    <t>functional_class</t>
-  </si>
-  <si>
-    <t>HOLDOUTTEST</t>
-  </si>
-  <si>
-    <t>aa_seq</t>
+    <t>acetate; isobutyrate; propionate</t>
+  </si>
+  <si>
+    <t>D-aspartate; L-aspartate</t>
+  </si>
+  <si>
+    <t>2,4-dimethylhexanoate</t>
+  </si>
+  <si>
+    <t>3-hydroxypicolinoate</t>
+  </si>
+  <si>
+    <t>malonate; methylmalonate</t>
+  </si>
+  <si>
+    <t>2,7- dihydroxy-5-methyl-1-naphthoate</t>
+  </si>
+  <si>
+    <r>
+      <t>5-hydroxy-4-methoxy-3,6,7,8-tetrahydropyrrolo[3,2-</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>]indole-2-carboxylate</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5-hydroxy-6-methoxy-1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-indole-2-carboxylate</t>
+    </r>
+  </si>
+  <si>
+    <t>2-ketoisovalerate; 3,3- dimethyl-2-ketobutyrate</t>
+  </si>
+  <si>
+    <t>acetate; propionate</t>
+  </si>
+  <si>
+    <t>decanoate</t>
+  </si>
+  <si>
+    <t>myristate; pentadecanoate; palmitate</t>
+  </si>
+  <si>
+    <t>dihydroxytetradecanoate; dihydroxyhexadecanoate</t>
+  </si>
+  <si>
+    <r>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)-3-(1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-indol-3-yl)-2-methylbutanoate</t>
+    </r>
+  </si>
+  <si>
+    <t>octanoate; hexanoate</t>
+  </si>
+  <si>
+    <t>(2R)-2-[(2R,5S)-5-[(2S)-2-hydroxypropyl]oxolan-2-yl]propanoate; 6,8-dihydroxy-2-methylnon-2E-enoate</t>
+  </si>
+  <si>
+    <t>3,4-dihydroxybenzoate</t>
+  </si>
+  <si>
+    <t>acetate; butyrate; malonate</t>
+  </si>
+  <si>
+    <t>desmethylaminocoumarin</t>
+  </si>
+  <si>
+    <t>9-methyldecanoate</t>
+  </si>
+  <si>
+    <t>decanoate; methylnonanoate; methyldecanoate; hexanoate; caprylate</t>
+  </si>
+  <si>
+    <t>4-hydroxyphenylpyruvate</t>
+  </si>
+  <si>
+    <t>13-methyltetradecanoate</t>
+  </si>
+  <si>
+    <t>5-hydroxy-4-methoxy-3,6,7,8-tetrahydropyrrolo[3,2-e]indole-2-carboxylate</t>
+  </si>
+  <si>
+    <t>2,4-diamino-3-oxobutanoate</t>
+  </si>
+  <si>
+    <r>
+      <t>(2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)-2-(5-((2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)-3-hydroxyhexan-2-yl)tetrahydrofuran-2-yl)propanoate</t>
+    </r>
+  </si>
+  <si>
+    <t>2-hydroxyisovalerate; 2-hydroxy-3-methylvalerate</t>
+  </si>
+  <si>
+    <t>p-hydroxyphenylacetate</t>
+  </si>
+  <si>
+    <t>9,10-epoxy-8-hydroxy-9-methyl-decatrienoate</t>
+  </si>
+  <si>
+    <t>1,4-dihydroxy-6-naphthoate</t>
+  </si>
+  <si>
+    <t>5-methylnaphthoate</t>
+  </si>
+  <si>
+    <t>AMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8041,13 +8013,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF2E2E2E"/>
       <name val="Arial"/>
@@ -8065,7 +8030,7 @@
       <name val="MinionPro"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8281,6 +8246,18 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -8442,7 +8419,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -8461,11 +8438,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -8828,8 +8807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="F207" sqref="F207"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
+      <selection activeCell="I351" sqref="I351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8838,7 +8817,7 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="4" width="2.83203125" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="4" customWidth="1"/>
@@ -8849,19 +8828,19 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>2519</v>
+        <v>2473</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2404</v>
+        <v>2396</v>
       </c>
       <c r="D1" t="s">
-        <v>2422</v>
+        <v>2406</v>
       </c>
       <c r="E1" t="s">
-        <v>2425</v>
+        <v>2407</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -8870,13 +8849,13 @@
         <v>2353</v>
       </c>
       <c r="H1" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
       <c r="I1" t="s">
-        <v>2517</v>
+        <v>2471</v>
       </c>
       <c r="J1" t="s">
-        <v>2409</v>
+        <v>2399</v>
       </c>
       <c r="K1" t="s">
         <v>2</v>
@@ -8972,13 +8951,13 @@
         <v>1195</v>
       </c>
       <c r="G3" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
       <c r="H3" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I3" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K3" t="s">
         <v>1196</v>
@@ -9022,13 +9001,13 @@
         <v>832</v>
       </c>
       <c r="G4" t="s">
-        <v>2357</v>
+        <v>2482</v>
       </c>
       <c r="H4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K4" t="s">
         <v>833</v>
@@ -9069,16 +9048,16 @@
         <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>2513</v>
+        <v>2360</v>
       </c>
       <c r="H5" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I5" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="J5" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K5" t="s">
         <v>224</v>
@@ -9119,16 +9098,16 @@
         <v>1784</v>
       </c>
       <c r="G6" t="s">
-        <v>2515</v>
+        <v>2470</v>
       </c>
       <c r="H6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J6" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K6" t="s">
         <v>1785</v>
@@ -9169,13 +9148,13 @@
         <v>1792</v>
       </c>
       <c r="G7" t="s">
-        <v>2514</v>
+        <v>2469</v>
       </c>
       <c r="H7" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I7" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="K7" t="s">
         <v>1785</v>
@@ -9469,10 +9448,10 @@
         <v>2356</v>
       </c>
       <c r="H13" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I13" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K13" t="s">
         <v>817</v>
@@ -9513,13 +9492,13 @@
         <v>1532</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>1533</v>
@@ -9707,16 +9686,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>2382</v>
+        <v>2474</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>1523</v>
@@ -9754,16 +9733,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>2382</v>
+        <v>2474</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>1523</v>
@@ -9807,10 +9786,10 @@
         <v>1933</v>
       </c>
       <c r="H20" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I20" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="K20" t="s">
         <v>1846</v>
@@ -9848,16 +9827,16 @@
         <v>1</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>2384</v>
+        <v>2381</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>2383</v>
+        <v>2442</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K21" s="6" t="s">
         <v>625</v>
@@ -10088,13 +10067,13 @@
         <v>1453</v>
       </c>
       <c r="G26" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H26" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I26" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="s">
@@ -10233,16 +10212,16 @@
         <v>4</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>2385</v>
+        <v>2382</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>2386</v>
+        <v>2475</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="K29" s="4" t="s">
         <v>367</v>
@@ -10283,13 +10262,13 @@
         <v>66</v>
       </c>
       <c r="G30" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="H30" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I30" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K30" t="s">
         <v>67</v>
@@ -10330,16 +10309,16 @@
         <v>1331</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>2387</v>
+        <v>2383</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J31" s="6" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>1332</v>
@@ -10373,23 +10352,20 @@
       <c r="B32" s="6" t="s">
         <v>1728</v>
       </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
       <c r="E32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>2389</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>1933</v>
+        <v>2385</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>2507</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>1933</v>
+        <v>2375</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>1933</v>
+        <v>2368</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>1729</v>
@@ -10430,13 +10406,13 @@
         <v>1470</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>2390</v>
+        <v>2476</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K33" s="4" t="s">
         <v>1471</v>
@@ -10474,16 +10450,16 @@
         <v>1</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>2392</v>
+        <v>2386</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>2391</v>
+        <v>2429</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K34" s="6" t="s">
         <v>2050</v>
@@ -10521,16 +10497,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>2393</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>2394</v>
+        <v>2387</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>2477</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K35" s="6" t="s">
         <v>640</v>
@@ -10571,13 +10547,13 @@
         <v>2060</v>
       </c>
       <c r="G36" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="H36" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I36" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="K36" t="s">
         <v>2061</v>
@@ -10815,13 +10791,13 @@
         <v>465</v>
       </c>
       <c r="G41" t="s">
+        <v>2376</v>
+      </c>
+      <c r="H41" t="s">
         <v>2377</v>
       </c>
-      <c r="H41" t="s">
-        <v>2378</v>
-      </c>
       <c r="I41" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="K41" t="s">
         <v>466</v>
@@ -10859,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>2395</v>
+        <v>2388</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>1933</v>
@@ -10953,10 +10929,10 @@
         <v>0</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>2397</v>
+        <v>2389</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>2396</v>
+        <v>2505</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>1933</v>
@@ -10996,9 +10972,6 @@
       <c r="B45" s="7" t="s">
         <v>1647</v>
       </c>
-      <c r="C45" s="7">
-        <v>0</v>
-      </c>
       <c r="E45" s="7">
         <v>0</v>
       </c>
@@ -11012,7 +10985,7 @@
         <v>1933</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>1649</v>
@@ -11241,13 +11214,13 @@
         <v>2128</v>
       </c>
       <c r="G50" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H50" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I50" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K50" t="s">
         <v>2121</v>
@@ -11285,16 +11258,16 @@
         <v>1</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>2398</v>
+        <v>2390</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="K51" s="6" t="s">
         <v>1446</v>
@@ -11335,13 +11308,13 @@
         <v>1862</v>
       </c>
       <c r="G52" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H52" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I52" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K52" t="s">
         <v>1863</v>
@@ -11429,13 +11402,13 @@
         <v>423</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>2399</v>
+        <v>2391</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>416</v>
@@ -11617,13 +11590,13 @@
         <v>74</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>2516</v>
+        <v>2478</v>
       </c>
       <c r="H58" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I58" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K58" t="s">
         <v>75</v>
@@ -11661,7 +11634,7 @@
         <v>0</v>
       </c>
       <c r="F59" t="s">
-        <v>2402</v>
+        <v>2394</v>
       </c>
       <c r="G59" t="s">
         <v>1933</v>
@@ -11758,13 +11731,13 @@
         <v>347</v>
       </c>
       <c r="G61" t="s">
-        <v>2403</v>
+        <v>2395</v>
       </c>
       <c r="H61" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I61" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="K61" t="s">
         <v>339</v>
@@ -11798,9 +11771,6 @@
       <c r="B62" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="C62" s="7">
-        <v>0</v>
-      </c>
       <c r="E62" s="7">
         <v>1</v>
       </c>
@@ -11808,16 +11778,16 @@
         <v>82</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>2510</v>
+        <v>2479</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I62" s="7" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K62" s="7" t="s">
         <v>405</v>
@@ -11851,9 +11821,6 @@
       <c r="B63" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="C63" s="7">
-        <v>0</v>
-      </c>
       <c r="E63" s="7">
         <v>1</v>
       </c>
@@ -11861,16 +11828,16 @@
         <v>82</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>2510</v>
+        <v>2479</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I63" s="7" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K63" s="7" t="s">
         <v>405</v>
@@ -11911,13 +11878,13 @@
         <v>763</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K64" s="6" t="s">
         <v>1117</v>
@@ -12055,13 +12022,13 @@
         <v>381</v>
       </c>
       <c r="G67" t="s">
-        <v>2405</v>
+        <v>2480</v>
       </c>
       <c r="H67" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I67" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="K67" t="s">
         <v>382</v>
@@ -12199,19 +12166,19 @@
         <v>1</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>2407</v>
+        <v>2397</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>2406</v>
+        <v>2508</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>1870</v>
@@ -12249,19 +12216,19 @@
         <v>1</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>2410</v>
+        <v>2400</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>2411</v>
+        <v>2481</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>1571</v>
@@ -12302,13 +12269,13 @@
         <v>1636</v>
       </c>
       <c r="G72" t="s">
-        <v>2413</v>
+        <v>1630</v>
       </c>
       <c r="H72" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I72" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K72" t="s">
         <v>1637</v>
@@ -12349,13 +12316,13 @@
         <v>1625</v>
       </c>
       <c r="G73" t="s">
-        <v>2413</v>
+        <v>1630</v>
       </c>
       <c r="H73" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I73" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="K73" t="s">
         <v>1626</v>
@@ -12396,13 +12363,13 @@
         <v>1625</v>
       </c>
       <c r="G74" t="s">
-        <v>2413</v>
+        <v>1630</v>
       </c>
       <c r="H74" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I74" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="K74" t="s">
         <v>1633</v>
@@ -12449,10 +12416,10 @@
         <v>1933</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K75" s="7" t="s">
         <v>2318</v>
@@ -12590,16 +12557,16 @@
         <v>1242</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>2417</v>
+        <v>2509</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K78" s="7" t="s">
         <v>1243</v>
@@ -12640,16 +12607,16 @@
         <v>36</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>2414</v>
+        <v>2469</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K79" s="4" t="s">
         <v>37</v>
@@ -12843,13 +12810,13 @@
         <v>832</v>
       </c>
       <c r="G83" t="s">
-        <v>2357</v>
+        <v>2482</v>
       </c>
       <c r="H83" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I83" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K83" t="s">
         <v>1767</v>
@@ -12893,13 +12860,13 @@
         <v>1766</v>
       </c>
       <c r="G84" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H84" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I84" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K84" t="s">
         <v>1767</v>
@@ -13040,16 +13007,16 @@
         <v>143</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>2420</v>
+        <v>2405</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>1752</v>
@@ -13090,16 +13057,16 @@
         <v>50</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2419</v>
+        <v>2483</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>2420</v>
+        <v>2405</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>2294</v>
@@ -13140,16 +13107,16 @@
         <v>191</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2421</v>
+        <v>2484</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>192</v>
@@ -13190,16 +13157,16 @@
         <v>1496</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>1497</v>
@@ -13290,16 +13257,16 @@
         <v>1278</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J92" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K92" s="6" t="s">
         <v>1926</v>
@@ -13340,16 +13307,16 @@
         <v>850</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>2423</v>
+        <v>2485</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>851</v>
@@ -13390,16 +13357,16 @@
         <v>858</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>2424</v>
+        <v>2486</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J94" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K94" s="6" t="s">
         <v>851</v>
@@ -13440,16 +13407,16 @@
         <v>861</v>
       </c>
       <c r="G95" s="10" t="s">
-        <v>2424</v>
+        <v>2486</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J95" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K95" s="6" t="s">
         <v>851</v>
@@ -13490,13 +13457,13 @@
         <v>1221</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>1222</v>
@@ -13584,16 +13551,16 @@
         <v>1</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>2426</v>
+        <v>2408</v>
       </c>
       <c r="G98" s="6" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="K98" s="6" t="s">
         <v>485</v>
@@ -13634,7 +13601,7 @@
         <v>0</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>1933</v>
@@ -13684,16 +13651,16 @@
         <v>692</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>2428</v>
+        <v>2487</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K100" s="4" t="s">
         <v>693</v>
@@ -13734,7 +13701,7 @@
         <v>0</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>2429</v>
+        <v>2410</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>1933</v>
@@ -13784,13 +13751,13 @@
         <v>1430</v>
       </c>
       <c r="G102" s="4" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I102" s="4" t="s">
         <v>2362</v>
-      </c>
-      <c r="H102" s="4" t="s">
-        <v>2371</v>
-      </c>
-      <c r="I102" s="4" t="s">
-        <v>2363</v>
       </c>
       <c r="K102" s="4" t="s">
         <v>1431</v>
@@ -13828,16 +13795,16 @@
         <v>4</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>2430</v>
+        <v>2411</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>2356</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K103" s="4" t="s">
         <v>1204</v>
@@ -13878,16 +13845,16 @@
         <v>151</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>2431</v>
+        <v>2488</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J104" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K104" s="6" t="s">
         <v>152</v>
@@ -13928,16 +13895,16 @@
         <v>926</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>2432</v>
+        <v>2412</v>
       </c>
       <c r="H105" s="11" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J105" s="11" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K105" s="11" t="s">
         <v>927</v>
@@ -14028,16 +13995,16 @@
         <v>50</v>
       </c>
       <c r="G107" s="6" t="s">
-        <v>2433</v>
+        <v>2413</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J107" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K107" s="6" t="s">
         <v>1375</v>
@@ -14075,7 +14042,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>2434</v>
+        <v>2414</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>1933</v>
@@ -14084,7 +14051,7 @@
         <v>1933</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K108" s="6" t="s">
         <v>184</v>
@@ -14125,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>2435</v>
+        <v>2415</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>1933</v>
@@ -14211,53 +14178,53 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="111" spans="1:18" s="6" customFormat="1">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:18" s="22" customFormat="1">
+      <c r="A111" s="22" t="s">
         <v>1908</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="22" t="s">
         <v>1909</v>
       </c>
-      <c r="C111" s="6">
-        <v>0</v>
-      </c>
-      <c r="E111" s="6">
-        <v>0</v>
-      </c>
-      <c r="F111" s="6" t="s">
+      <c r="C111" s="22">
+        <v>0</v>
+      </c>
+      <c r="E111" s="22">
+        <v>0</v>
+      </c>
+      <c r="F111" s="22" t="s">
         <v>1910</v>
       </c>
-      <c r="G111" s="6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="K111" s="6" t="s">
+      <c r="G111" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="I111" s="22" t="s">
+        <v>1933</v>
+      </c>
+      <c r="K111" s="22" t="s">
         <v>1911</v>
       </c>
-      <c r="L111" s="6" t="s">
+      <c r="L111" s="22" t="s">
         <v>1912</v>
       </c>
-      <c r="M111" s="6" t="s">
+      <c r="M111" s="22" t="s">
         <v>1913</v>
       </c>
-      <c r="N111" s="6" t="s">
+      <c r="N111" s="22" t="s">
         <v>1914</v>
       </c>
-      <c r="O111" s="6">
+      <c r="O111" s="22">
         <v>26853480</v>
       </c>
-      <c r="P111" s="6">
+      <c r="P111" s="22">
         <v>26853480</v>
       </c>
-      <c r="Q111" s="6">
+      <c r="Q111" s="22">
         <v>26853480</v>
       </c>
-      <c r="R111" s="6" t="s">
+      <c r="R111" s="22" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -14281,10 +14248,10 @@
         <v>1933</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
       <c r="K112" s="6" t="s">
         <v>951</v>
@@ -14475,16 +14442,16 @@
         <v>677</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>2436</v>
+        <v>2416</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>1406</v>
@@ -14531,7 +14498,7 @@
         <v>1933</v>
       </c>
       <c r="I117" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K117" t="s">
         <v>1971</v>
@@ -14578,7 +14545,7 @@
         <v>1933</v>
       </c>
       <c r="I118" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K118" t="s">
         <v>1971</v>
@@ -14719,16 +14686,16 @@
         <v>494</v>
       </c>
       <c r="G121" s="4" t="s">
-        <v>2437</v>
+        <v>2489</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>2518</v>
+        <v>2363</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>2416</v>
+        <v>2510</v>
       </c>
       <c r="K121" s="4" t="s">
         <v>578</v>
@@ -14869,16 +14836,16 @@
         <v>2085</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>2438</v>
+        <v>2417</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K124" s="4" t="s">
         <v>2086</v>
@@ -15113,16 +15080,16 @@
         <v>1540</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>2440</v>
+        <v>2419</v>
       </c>
       <c r="H129" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I129" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J129" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K129" t="s">
         <v>1541</v>
@@ -15322,10 +15289,10 @@
         <v>1933</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J133" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K133" s="6" t="s">
         <v>1855</v>
@@ -15466,16 +15433,16 @@
         <v>677</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>2442</v>
+        <v>2421</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K136" s="4" t="s">
         <v>1679</v>
@@ -15516,16 +15483,16 @@
         <v>50</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>2445</v>
+        <v>2442</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K137" s="4" t="s">
         <v>1344</v>
@@ -15569,16 +15536,16 @@
         <v>1352</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>2444</v>
+        <v>2490</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>2443</v>
+        <v>2422</v>
       </c>
       <c r="K138" s="6" t="s">
         <v>1353</v>
@@ -15619,16 +15586,16 @@
         <v>215</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K139" s="4" t="s">
         <v>216</v>
@@ -15775,10 +15742,10 @@
         <v>1933</v>
       </c>
       <c r="H142" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="K142" s="6" t="s">
         <v>745</v>
@@ -15869,19 +15836,19 @@
         <v>4</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>2446</v>
+        <v>2423</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>2447</v>
+        <v>2424</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K144" s="4" t="s">
         <v>28</v>
@@ -16131,7 +16098,7 @@
         <v>1933</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K149" s="6" t="s">
         <v>2195</v>
@@ -16178,10 +16145,10 @@
         <v>2356</v>
       </c>
       <c r="H150" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K150" s="6" t="s">
         <v>534</v>
@@ -16269,19 +16236,19 @@
         <v>1</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>2448</v>
+        <v>2425</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>2386</v>
+        <v>2475</v>
       </c>
       <c r="H152" s="6" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K152" s="6" t="s">
         <v>2114</v>
@@ -16475,13 +16442,13 @@
         <v>267</v>
       </c>
       <c r="G156" t="s">
-        <v>2501</v>
+        <v>2462</v>
       </c>
       <c r="H156" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I156" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="K156" t="s">
         <v>256</v>
@@ -16525,10 +16492,10 @@
         <v>2356</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K157" s="4" t="s">
         <v>670</v>
@@ -16616,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="D159" t="s">
-        <v>2449</v>
+        <v>2426</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -16625,16 +16592,16 @@
         <v>1703</v>
       </c>
       <c r="G159" t="s">
-        <v>2451</v>
+        <v>2428</v>
       </c>
       <c r="H159" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I159" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J159" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K159" t="s">
         <v>1696</v>
@@ -16672,7 +16639,7 @@
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>2450</v>
+        <v>2427</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -16681,16 +16648,16 @@
         <v>1695</v>
       </c>
       <c r="G160" t="s">
-        <v>2452</v>
+        <v>2429</v>
       </c>
       <c r="H160" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I160" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J160" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K160" t="s">
         <v>1696</v>
@@ -16775,22 +16742,22 @@
         <v>1802</v>
       </c>
       <c r="D162" t="s">
-        <v>2453</v>
+        <v>2430</v>
       </c>
       <c r="F162" t="s">
         <v>20</v>
       </c>
       <c r="G162" t="s">
-        <v>2454</v>
+        <v>2431</v>
       </c>
       <c r="H162" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I162" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="J162" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K162" t="s">
         <v>1803</v>
@@ -16881,16 +16848,16 @@
         <v>2163</v>
       </c>
       <c r="G164" t="s">
-        <v>2511</v>
+        <v>2467</v>
       </c>
       <c r="H164" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I164" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J164" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K164" t="s">
         <v>2164</v>
@@ -17034,10 +17001,10 @@
         <v>2356</v>
       </c>
       <c r="H167" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I167" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K167" t="s">
         <v>663</v>
@@ -17078,13 +17045,13 @@
         <v>510</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>2512</v>
+        <v>2468</v>
       </c>
       <c r="H168" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I168" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K168" t="s">
         <v>511</v>
@@ -17175,16 +17142,16 @@
         <v>677</v>
       </c>
       <c r="G170" t="s">
-        <v>2455</v>
+        <v>2491</v>
       </c>
       <c r="H170" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I170" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J170" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K170" t="s">
         <v>678</v>
@@ -17222,7 +17189,7 @@
         <v>0</v>
       </c>
       <c r="D171" t="s">
-        <v>2456</v>
+        <v>2432</v>
       </c>
       <c r="F171" t="s">
         <v>429</v>
@@ -17278,10 +17245,10 @@
         <v>2356</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K172" s="6" t="s">
         <v>737</v>
@@ -17375,10 +17342,10 @@
         <v>2356</v>
       </c>
       <c r="H174" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I174" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K174" t="s">
         <v>2205</v>
@@ -17466,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>2457</v>
+        <v>2433</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -17522,13 +17489,13 @@
         <v>832</v>
       </c>
       <c r="G177" t="s">
-        <v>2357</v>
+        <v>2482</v>
       </c>
       <c r="H177" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I177" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K177" t="s">
         <v>1361</v>
@@ -17569,13 +17536,13 @@
         <v>2060</v>
       </c>
       <c r="G178" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="H178" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I178" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="K178" t="s">
         <v>2228</v>
@@ -17619,13 +17586,13 @@
         <v>2356</v>
       </c>
       <c r="H179" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I179" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J179" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K179" t="s">
         <v>503</v>
@@ -17728,7 +17695,7 @@
         <v>1933</v>
       </c>
       <c r="J181" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K181" t="s">
         <v>2310</v>
@@ -17766,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="D182" t="s">
-        <v>2459</v>
+        <v>2435</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -17775,16 +17742,16 @@
         <v>824</v>
       </c>
       <c r="G182" t="s">
-        <v>2458</v>
+        <v>2434</v>
       </c>
       <c r="H182" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I182" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J182" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K182" t="s">
         <v>825</v>
@@ -17925,16 +17892,16 @@
         <v>1265</v>
       </c>
       <c r="G185" t="s">
-        <v>2460</v>
+        <v>2436</v>
       </c>
       <c r="H185" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I185" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J185" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K185" t="s">
         <v>1266</v>
@@ -18078,13 +18045,13 @@
         <v>617</v>
       </c>
       <c r="G188" t="s">
-        <v>2461</v>
+        <v>2437</v>
       </c>
       <c r="H188" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I188" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="K188" t="s">
         <v>618</v>
@@ -18125,16 +18092,16 @@
         <v>389</v>
       </c>
       <c r="G189" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H189" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I189" t="s">
-        <v>2420</v>
+        <v>2405</v>
       </c>
       <c r="J189" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K189" t="s">
         <v>390</v>
@@ -18275,16 +18242,16 @@
         <v>285</v>
       </c>
       <c r="G192" s="10" t="s">
-        <v>2462</v>
+        <v>2438</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J192" s="6" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K192" s="6" t="s">
         <v>1759</v>
@@ -18375,16 +18342,16 @@
         <v>1687</v>
       </c>
       <c r="G194" s="13" t="s">
-        <v>2463</v>
+        <v>2492</v>
       </c>
       <c r="H194" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I194" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J194" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K194" t="s">
         <v>1688</v>
@@ -18419,19 +18386,19 @@
         <v>247</v>
       </c>
       <c r="E195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F195" t="s">
         <v>248</v>
       </c>
       <c r="G195" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="H195" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I195" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K195" t="s">
         <v>249</v>
@@ -18475,10 +18442,10 @@
         <v>2355</v>
       </c>
       <c r="H196" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I196" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K196" t="s">
         <v>1234</v>
@@ -18622,10 +18589,10 @@
         <v>1027</v>
       </c>
       <c r="G199" s="6" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I199" s="6" t="s">
         <v>1933</v>
@@ -18672,10 +18639,10 @@
         <v>1019</v>
       </c>
       <c r="G200" s="6" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I200" s="6" t="s">
         <v>1933</v>
@@ -18719,16 +18686,16 @@
         <v>1586</v>
       </c>
       <c r="G201" s="13" t="s">
-        <v>2465</v>
+        <v>2504</v>
       </c>
       <c r="H201" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I201" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J201" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K201" t="s">
         <v>1587</v>
@@ -18769,13 +18736,13 @@
         <v>1125</v>
       </c>
       <c r="G202" t="s">
-        <v>2386</v>
+        <v>2475</v>
       </c>
       <c r="H202" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I202" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K202" t="s">
         <v>1126</v>
@@ -19019,13 +18986,13 @@
         <v>2356</v>
       </c>
       <c r="H207" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I207" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J207" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K207" t="s">
         <v>723</v>
@@ -19116,16 +19083,16 @@
         <v>215</v>
       </c>
       <c r="G209" s="14" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
       <c r="H209" s="14" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I209" s="14" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J209" s="14" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K209" t="s">
         <v>2142</v>
@@ -19166,16 +19133,16 @@
         <v>1714</v>
       </c>
       <c r="G210" t="s">
-        <v>2466</v>
+        <v>2442</v>
       </c>
       <c r="H210" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I210" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J210" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K210" t="s">
         <v>1715</v>
@@ -19219,13 +19186,13 @@
         <v>2258</v>
       </c>
       <c r="G211" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H211" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I211" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="K211" t="s">
         <v>2259</v>
@@ -19272,10 +19239,10 @@
         <v>1933</v>
       </c>
       <c r="H212" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I212" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K212" t="s">
         <v>2149</v>
@@ -19372,7 +19339,7 @@
         <v>1933</v>
       </c>
       <c r="I214" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K214" t="s">
         <v>1506</v>
@@ -19413,13 +19380,13 @@
         <v>1462</v>
       </c>
       <c r="G215" t="s">
-        <v>2418</v>
+        <v>2404</v>
       </c>
       <c r="H215" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I215" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K215" t="s">
         <v>1463</v>
@@ -19460,16 +19427,16 @@
         <v>639</v>
       </c>
       <c r="G216" t="s">
-        <v>2437</v>
+        <v>2489</v>
       </c>
       <c r="H216" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I216" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J216" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K216" t="s">
         <v>2171</v>
@@ -19707,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="D221" t="s">
-        <v>2467</v>
+        <v>2440</v>
       </c>
       <c r="E221" s="6">
         <v>0</v>
@@ -19760,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>2467</v>
+        <v>2440</v>
       </c>
       <c r="E222" s="6">
         <v>0</v>
@@ -19813,7 +19780,7 @@
         <v>0</v>
       </c>
       <c r="D223" t="s">
-        <v>2467</v>
+        <v>2440</v>
       </c>
       <c r="E223" s="6">
         <v>0</v>
@@ -19869,16 +19836,16 @@
         <v>1278</v>
       </c>
       <c r="G224" t="s">
-        <v>2468</v>
+        <v>2493</v>
       </c>
       <c r="H224" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I224" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J224" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K224" t="s">
         <v>1279</v>
@@ -19919,13 +19886,13 @@
         <v>1286</v>
       </c>
       <c r="G225" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H225" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I225" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K225" t="s">
         <v>1279</v>
@@ -20113,7 +20080,7 @@
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>2469</v>
+        <v>2441</v>
       </c>
       <c r="E229" s="6">
         <v>0</v>
@@ -20219,16 +20186,16 @@
         <v>526</v>
       </c>
       <c r="G231" t="s">
-        <v>2470</v>
+        <v>2442</v>
       </c>
       <c r="H231" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I231" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J231" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K231" t="s">
         <v>841</v>
@@ -20269,16 +20236,16 @@
         <v>526</v>
       </c>
       <c r="G232" t="s">
-        <v>2470</v>
+        <v>2442</v>
       </c>
       <c r="H232" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I232" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J232" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K232" t="s">
         <v>841</v>
@@ -20316,7 +20283,7 @@
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>2471</v>
+        <v>2443</v>
       </c>
       <c r="E233" s="6">
         <v>0</v>
@@ -20372,13 +20339,13 @@
         <v>2178</v>
       </c>
       <c r="G234" s="13" t="s">
+        <v>2468</v>
+      </c>
+      <c r="H234" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I234" t="s">
         <v>2472</v>
-      </c>
-      <c r="H234" t="s">
-        <v>2371</v>
-      </c>
-      <c r="I234" t="s">
-        <v>2518</v>
       </c>
       <c r="K234" t="s">
         <v>2179</v>
@@ -20472,13 +20439,13 @@
         <v>2356</v>
       </c>
       <c r="H236" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I236" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J236" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K236" t="s">
         <v>1658</v>
@@ -20569,13 +20536,13 @@
         <v>1671</v>
       </c>
       <c r="G238" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
       <c r="H238" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I238" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K238" t="s">
         <v>1672</v>
@@ -20619,13 +20586,13 @@
         <v>2356</v>
       </c>
       <c r="H239" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I239" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J239" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K239" t="s">
         <v>1837</v>
@@ -20669,13 +20636,13 @@
         <v>2356</v>
       </c>
       <c r="H240" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I240" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J240" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K240" t="s">
         <v>651</v>
@@ -20719,13 +20686,13 @@
         <v>2356</v>
       </c>
       <c r="H241" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I241" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J241" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K241" t="s">
         <v>1991</v>
@@ -21424,13 +21391,13 @@
         <v>313</v>
       </c>
       <c r="G256" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H256" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I256" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K256" t="s">
         <v>2013</v>
@@ -21471,13 +21438,13 @@
         <v>313</v>
       </c>
       <c r="G257" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="H257" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I257" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K257" t="s">
         <v>2057</v>
@@ -21988,13 +21955,13 @@
         <v>1258</v>
       </c>
       <c r="G268" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H268" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I268" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K268" t="s">
         <v>1259</v>
@@ -22035,13 +22002,13 @@
         <v>966</v>
       </c>
       <c r="G269" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H269" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I269" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K269" t="s">
         <v>967</v>
@@ -22123,22 +22090,22 @@
         <v>729</v>
       </c>
       <c r="E271">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F271" t="s">
         <v>151</v>
       </c>
       <c r="G271" t="s">
-        <v>2473</v>
+        <v>2455</v>
       </c>
       <c r="H271" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I271" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J271" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K271" t="s">
         <v>730</v>
@@ -22179,16 +22146,16 @@
         <v>1578</v>
       </c>
       <c r="G272" s="15" t="s">
-        <v>2474</v>
+        <v>2444</v>
       </c>
       <c r="H272" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I272" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J272" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K272" t="s">
         <v>1579</v>
@@ -22340,7 +22307,7 @@
         <v>1933</v>
       </c>
       <c r="J275" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K275" t="s">
         <v>1810</v>
@@ -22381,16 +22348,16 @@
         <v>457</v>
       </c>
       <c r="G276" t="s">
-        <v>2475</v>
+        <v>2494</v>
       </c>
       <c r="H276" t="s">
-        <v>2439</v>
+        <v>2418</v>
       </c>
       <c r="I276" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
       <c r="J276" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K276" t="s">
         <v>458</v>
@@ -22534,10 +22501,10 @@
         <v>2356</v>
       </c>
       <c r="H279" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I279" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K279" t="s">
         <v>2043</v>
@@ -22590,7 +22557,7 @@
         <v>1933</v>
       </c>
       <c r="J280" t="s">
-        <v>2476</v>
+        <v>2445</v>
       </c>
       <c r="K280" t="s">
         <v>896</v>
@@ -22634,13 +22601,13 @@
         <v>1032</v>
       </c>
       <c r="G281" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H281" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I281" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K281" t="s">
         <v>1033</v>
@@ -22728,13 +22695,13 @@
         <v>715</v>
       </c>
       <c r="G283" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="H283" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="I283" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K283" t="s">
         <v>716</v>
@@ -23121,14 +23088,14 @@
       <c r="F291" t="s">
         <v>2286</v>
       </c>
-      <c r="G291" s="16" t="s">
-        <v>2477</v>
+      <c r="G291" s="20" t="s">
+        <v>2506</v>
       </c>
       <c r="H291" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I291" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K291" t="s">
         <v>2287</v>
@@ -23168,17 +23135,17 @@
       <c r="F292" t="s">
         <v>970</v>
       </c>
-      <c r="G292" s="17" t="s">
-        <v>2478</v>
+      <c r="G292" s="16" t="s">
+        <v>2495</v>
       </c>
       <c r="H292" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I292" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J292" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K292" t="s">
         <v>971</v>
@@ -23219,16 +23186,16 @@
         <v>1160</v>
       </c>
       <c r="G293" t="s">
-        <v>2470</v>
+        <v>2442</v>
       </c>
       <c r="H293" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I293" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J293" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K293" t="s">
         <v>1161</v>
@@ -23269,16 +23236,16 @@
         <v>20</v>
       </c>
       <c r="G294" s="13" t="s">
-        <v>2479</v>
+        <v>2446</v>
       </c>
       <c r="H294" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I294" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J294" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K294" t="s">
         <v>2027</v>
@@ -23319,16 +23286,16 @@
         <v>175</v>
       </c>
       <c r="G295" t="s">
-        <v>2447</v>
+        <v>2424</v>
       </c>
       <c r="H295" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I295" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J295" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K295" t="s">
         <v>176</v>
@@ -23369,16 +23336,16 @@
         <v>20</v>
       </c>
       <c r="G296" t="s">
-        <v>2419</v>
+        <v>2483</v>
       </c>
       <c r="H296" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I296" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J296" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K296" t="s">
         <v>231</v>
@@ -23419,16 +23386,16 @@
         <v>47</v>
       </c>
       <c r="G297" t="s">
-        <v>2419</v>
+        <v>2483</v>
       </c>
       <c r="H297" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I297" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J297" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K297" t="s">
         <v>231</v>
@@ -23469,16 +23436,16 @@
         <v>1144</v>
       </c>
       <c r="G298" t="s">
-        <v>2480</v>
+        <v>2447</v>
       </c>
       <c r="H298" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I298" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J298" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K298" t="s">
         <v>1145</v>
@@ -23572,10 +23539,10 @@
         <v>2356</v>
       </c>
       <c r="H300" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I300" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K300" t="s">
         <v>1382</v>
@@ -23616,13 +23583,13 @@
         <v>240</v>
       </c>
       <c r="G301" t="s">
-        <v>2481</v>
+        <v>2496</v>
       </c>
       <c r="H301" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I301" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K301" t="s">
         <v>241</v>
@@ -23713,13 +23680,13 @@
         <v>2093</v>
       </c>
       <c r="G303" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="H303" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I303" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K303" t="s">
         <v>2094</v>
@@ -23759,17 +23726,17 @@
       <c r="F304" t="s">
         <v>1010</v>
       </c>
-      <c r="G304" t="s">
-        <v>2482</v>
+      <c r="G304" s="21" t="s">
+        <v>2497</v>
       </c>
       <c r="H304" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I304" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J304" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K304" t="s">
         <v>1011</v>
@@ -23810,16 +23777,16 @@
         <v>330</v>
       </c>
       <c r="G305" t="s">
-        <v>2483</v>
+        <v>2448</v>
       </c>
       <c r="H305" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I305" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J305" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K305" t="s">
         <v>331</v>
@@ -23859,14 +23826,14 @@
       <c r="F306" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G306" s="18" t="s">
-        <v>2484</v>
+      <c r="G306" s="17" t="s">
+        <v>2449</v>
       </c>
       <c r="H306" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I306" s="5" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K306" s="5" t="s">
         <v>1307</v>
@@ -23910,13 +23877,13 @@
         <v>2356</v>
       </c>
       <c r="H307" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I307" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J307" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K307" t="s">
         <v>685</v>
@@ -23957,16 +23924,16 @@
         <v>1828</v>
       </c>
       <c r="G308" t="s">
+        <v>2361</v>
+      </c>
+      <c r="H308" t="s">
+        <v>2370</v>
+      </c>
+      <c r="I308" t="s">
         <v>2362</v>
       </c>
-      <c r="H308" t="s">
-        <v>2371</v>
-      </c>
-      <c r="I308" t="s">
-        <v>2363</v>
-      </c>
       <c r="J308" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K308" t="s">
         <v>1829</v>
@@ -24007,16 +23974,16 @@
         <v>1322</v>
       </c>
       <c r="G309" t="s">
-        <v>2485</v>
+        <v>2450</v>
       </c>
       <c r="H309" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I309" t="s">
-        <v>2412</v>
+        <v>2401</v>
       </c>
       <c r="J309" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K309" t="s">
         <v>1323</v>
@@ -24057,16 +24024,16 @@
         <v>526</v>
       </c>
       <c r="G310" t="s">
-        <v>2470</v>
+        <v>2442</v>
       </c>
       <c r="H310" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I310" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J310" t="s">
-        <v>2486</v>
+        <v>2451</v>
       </c>
       <c r="K310" t="s">
         <v>527</v>
@@ -24107,16 +24074,16 @@
         <v>2077</v>
       </c>
       <c r="G311" t="s">
-        <v>2487</v>
+        <v>2439</v>
       </c>
       <c r="H311" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I311" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J311" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K311" t="s">
         <v>2078</v>
@@ -24154,16 +24121,16 @@
         <v>1</v>
       </c>
       <c r="F312" t="s">
-        <v>2488</v>
+        <v>2452</v>
       </c>
       <c r="G312" t="s">
         <v>2356</v>
       </c>
       <c r="H312" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I312" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="K312" t="s">
         <v>632</v>
@@ -24256,16 +24223,16 @@
         <v>1063</v>
       </c>
       <c r="G314" t="s">
-        <v>2487</v>
+        <v>2439</v>
       </c>
       <c r="H314" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I314" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J314" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K314" t="s">
         <v>1064</v>
@@ -24312,7 +24279,7 @@
         <v>1933</v>
       </c>
       <c r="I315" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K315" t="s">
         <v>1887</v>
@@ -24359,7 +24326,7 @@
         <v>1933</v>
       </c>
       <c r="I316" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K316" t="s">
         <v>1887</v>
@@ -24406,7 +24373,7 @@
         <v>1933</v>
       </c>
       <c r="I317" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K317" t="s">
         <v>1887</v>
@@ -24447,13 +24414,13 @@
         <v>151</v>
       </c>
       <c r="G318" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
       <c r="H318" t="s">
-        <v>2464</v>
+        <v>2439</v>
       </c>
       <c r="I318" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K318" t="s">
         <v>519</v>
@@ -24494,16 +24461,16 @@
         <v>1421</v>
       </c>
       <c r="G319" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="H319" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I319" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="J319" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K319" t="s">
         <v>1422</v>
@@ -24543,17 +24510,17 @@
       <c r="F320" t="s">
         <v>2186</v>
       </c>
-      <c r="G320" s="19" t="s">
-        <v>2489</v>
+      <c r="G320" s="18" t="s">
+        <v>1933</v>
       </c>
       <c r="H320" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I320" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J320" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K320" t="s">
         <v>2187</v>
@@ -24594,16 +24561,16 @@
         <v>1250</v>
       </c>
       <c r="G321" t="s">
-        <v>2490</v>
+        <v>2453</v>
       </c>
       <c r="H321" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I321" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="J321" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K321" t="s">
         <v>1251</v>
@@ -24644,16 +24611,16 @@
         <v>294</v>
       </c>
       <c r="G322" s="15" t="s">
-        <v>2491</v>
+        <v>2454</v>
       </c>
       <c r="H322" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I322" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="J322" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K322" t="s">
         <v>1080</v>
@@ -24741,13 +24708,13 @@
         <v>1962</v>
       </c>
       <c r="G324" t="s">
-        <v>2419</v>
+        <v>2483</v>
       </c>
       <c r="H324" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I324" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K324" t="s">
         <v>1963</v>
@@ -24788,13 +24755,13 @@
         <v>1776</v>
       </c>
       <c r="G325" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="H325" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I325" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K325" t="s">
         <v>1777</v>
@@ -24835,16 +24802,16 @@
         <v>2235</v>
       </c>
       <c r="G326" t="s">
-        <v>2485</v>
+        <v>2450</v>
       </c>
       <c r="H326" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I326" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="J326" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K326" t="s">
         <v>2236</v>
@@ -24885,7 +24852,7 @@
         <v>2241</v>
       </c>
       <c r="G327" t="s">
-        <v>2485</v>
+        <v>2450</v>
       </c>
       <c r="H327" t="s">
         <v>1933</v>
@@ -24932,16 +24899,16 @@
         <v>609</v>
       </c>
       <c r="G328" s="13" t="s">
-        <v>2492</v>
+        <v>2498</v>
       </c>
       <c r="H328" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I328" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J328" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K328" t="s">
         <v>610</v>
@@ -25170,13 +25137,13 @@
         <v>1487</v>
       </c>
       <c r="G333" t="s">
-        <v>2386</v>
+        <v>2475</v>
       </c>
       <c r="H333" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
       <c r="I333" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="K333" t="s">
         <v>1488</v>
@@ -25217,13 +25184,13 @@
         <v>494</v>
       </c>
       <c r="G334" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
       <c r="H334" t="s">
-        <v>2388</v>
+        <v>2384</v>
       </c>
       <c r="I334" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="K334" t="s">
         <v>495</v>
@@ -25311,16 +25278,16 @@
         <v>1478</v>
       </c>
       <c r="G336" t="s">
-        <v>2494</v>
+        <v>2455</v>
       </c>
       <c r="H336" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I336" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J336" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K336" t="s">
         <v>1516</v>
@@ -25367,7 +25334,7 @@
         <v>1933</v>
       </c>
       <c r="I337" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="K337" t="s">
         <v>764</v>
@@ -25405,19 +25372,19 @@
         <v>4</v>
       </c>
       <c r="F338" t="s">
-        <v>2495</v>
+        <v>2456</v>
       </c>
       <c r="G338" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
       <c r="H338" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I338" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
       <c r="J338" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K338" t="s">
         <v>1040</v>
@@ -25505,16 +25472,16 @@
         <v>1168</v>
       </c>
       <c r="G340" t="s">
-        <v>2496</v>
+        <v>2457</v>
       </c>
       <c r="H340" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I340" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J340" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K340" t="s">
         <v>1169</v>
@@ -25555,16 +25522,16 @@
         <v>864</v>
       </c>
       <c r="G341" t="s">
-        <v>2470</v>
+        <v>2442</v>
       </c>
       <c r="H341" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I341" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J341" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K341" t="s">
         <v>865</v>
@@ -25602,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="s">
-        <v>2497</v>
+        <v>2458</v>
       </c>
       <c r="G342" t="s">
         <v>1933</v>
@@ -25652,16 +25619,16 @@
         <v>20</v>
       </c>
       <c r="G343" s="13" t="s">
-        <v>2498</v>
+        <v>2459</v>
       </c>
       <c r="H343" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I343" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J343" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K343" t="s">
         <v>2019</v>
@@ -25702,16 +25669,16 @@
         <v>910</v>
       </c>
       <c r="G344" s="13" t="s">
-        <v>2498</v>
+        <v>2459</v>
       </c>
       <c r="H344" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I344" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J344" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K344" t="s">
         <v>911</v>
@@ -25752,16 +25719,16 @@
         <v>1736</v>
       </c>
       <c r="G345" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="H345" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I345" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J345" t="s">
-        <v>2503</v>
+        <v>2463</v>
       </c>
       <c r="K345" t="s">
         <v>1737</v>
@@ -25799,19 +25766,19 @@
         <v>1</v>
       </c>
       <c r="F346" t="s">
-        <v>2504</v>
+        <v>2464</v>
       </c>
       <c r="G346" t="s">
-        <v>2505</v>
+        <v>2465</v>
       </c>
       <c r="H346" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I346" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J346" t="s">
-        <v>2415</v>
+        <v>2402</v>
       </c>
       <c r="K346" t="s">
         <v>594</v>
@@ -25855,13 +25822,13 @@
         <v>2356</v>
       </c>
       <c r="H347" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I347" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="J347" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K347" t="s">
         <v>810</v>
@@ -25902,16 +25869,16 @@
         <v>1071</v>
       </c>
       <c r="G348" s="13" t="s">
-        <v>2509</v>
+        <v>2501</v>
       </c>
       <c r="H348" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="I348" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
       <c r="J348" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K348" t="s">
         <v>1072</v>
@@ -25955,13 +25922,13 @@
         <v>2356</v>
       </c>
       <c r="H349" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
       <c r="I349" t="s">
-        <v>2518</v>
+        <v>2472</v>
       </c>
       <c r="J349" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K349" t="s">
         <v>983</v>
@@ -25996,22 +25963,22 @@
         <v>1705</v>
       </c>
       <c r="E350">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F350" t="s">
         <v>1706</v>
       </c>
       <c r="G350" t="s">
-        <v>2506</v>
+        <v>2466</v>
       </c>
       <c r="H350" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="I350" t="s">
-        <v>2518</v>
+        <v>2364</v>
       </c>
       <c r="J350" t="s">
-        <v>2416</v>
+        <v>2403</v>
       </c>
       <c r="K350" t="s">
         <v>1707</v>
@@ -26052,16 +26019,16 @@
         <v>677</v>
       </c>
       <c r="G351" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="H351" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I351" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J351" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K351" t="s">
         <v>2068</v>
@@ -26102,16 +26069,16 @@
         <v>677</v>
       </c>
       <c r="G352" t="s">
-        <v>2507</v>
+        <v>2502</v>
       </c>
       <c r="H352" t="s">
-        <v>2499</v>
+        <v>2460</v>
       </c>
       <c r="I352" t="s">
-        <v>2500</v>
+        <v>2461</v>
       </c>
       <c r="J352" t="s">
-        <v>2441</v>
+        <v>2420</v>
       </c>
       <c r="K352" t="s">
         <v>2068</v>
@@ -26198,17 +26165,17 @@
       <c r="F354" t="s">
         <v>2106</v>
       </c>
-      <c r="G354" s="20" t="s">
-        <v>2508</v>
+      <c r="G354" s="19" t="s">
+        <v>2503</v>
       </c>
       <c r="H354" t="s">
-        <v>2400</v>
+        <v>2392</v>
       </c>
       <c r="I354" t="s">
-        <v>2401</v>
+        <v>2393</v>
       </c>
       <c r="J354" t="s">
-        <v>2408</v>
+        <v>2398</v>
       </c>
       <c r="K354" t="s">
         <v>2107</v>

--- a/data/mibig_training_set_manually_edited_20190304.xlsx
+++ b/data/mibig_training_set_manually_edited_20190304.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robi0916/Documents/Wageningen_UR/github/mibig_training_set_build_test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2256D3D-1C78-1643-AC9E-49E1719D8CCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C1E3F3-BD04-D84B-8CA3-C9E42A7C01EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25080" yWindow="460" windowWidth="25080" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25080" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mibig_merged_with_pmids" sheetId="1" r:id="rId1"/>
@@ -8807,8 +8807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
